--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -711,8 +711,16 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr"/>
-      <c r="D11" s="15" t="inlineStr"/>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -627,8 +627,16 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr"/>
-      <c r="D4" s="15" t="inlineStr"/>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -687,8 +695,16 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr"/>
-      <c r="D9" s="15" t="inlineStr"/>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -647,8 +647,16 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr"/>
-      <c r="D5" s="15" t="inlineStr"/>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -911,8 +919,16 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr"/>
-      <c r="D25" s="15" t="inlineStr"/>
+      <c r="C25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -983,8 +999,16 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr"/>
-      <c r="D31" s="15" t="inlineStr"/>
+      <c r="C31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="17" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -197,13 +197,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +549,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:D37"/>
+      <selection activeCell="E5" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -583,6 +583,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E1" s="10" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="13" t="n"/>
@@ -597,6 +602,11 @@
           <t>BINDO13</t>
         </is>
       </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>BING9</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="11" t="n">
@@ -607,16 +617,17 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr"/>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -627,16 +638,17 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -647,16 +659,17 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -668,7 +681,8 @@
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr"/>
-      <c r="D6" s="15" t="inlineStr"/>
+      <c r="D6" s="17" t="inlineStr"/>
+      <c r="E6" s="11" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -680,7 +694,8 @@
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr"/>
-      <c r="D7" s="15" t="inlineStr"/>
+      <c r="D7" s="17" t="inlineStr"/>
+      <c r="E7" s="11" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -692,7 +707,8 @@
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr"/>
-      <c r="D8" s="15" t="inlineStr"/>
+      <c r="D8" s="17" t="inlineStr"/>
+      <c r="E8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -703,16 +719,17 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D9" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -724,7 +741,8 @@
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="15" t="inlineStr"/>
+      <c r="D10" s="17" t="inlineStr"/>
+      <c r="E10" s="11" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -735,16 +753,17 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D11" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -756,7 +775,8 @@
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="15" t="inlineStr"/>
+      <c r="D12" s="17" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -768,7 +788,8 @@
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr"/>
-      <c r="D13" s="15" t="inlineStr"/>
+      <c r="D13" s="17" t="inlineStr"/>
+      <c r="E13" s="11" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -780,7 +801,8 @@
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr"/>
-      <c r="D14" s="15" t="inlineStr"/>
+      <c r="D14" s="17" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -792,7 +814,8 @@
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr"/>
-      <c r="D15" s="15" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -804,7 +827,8 @@
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr"/>
-      <c r="D16" s="15" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -816,7 +840,8 @@
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr"/>
-      <c r="D17" s="15" t="inlineStr"/>
+      <c r="D17" s="17" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -827,16 +852,17 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D18" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -848,7 +874,8 @@
         </is>
       </c>
       <c r="C19" s="11" t="inlineStr"/>
-      <c r="D19" s="15" t="inlineStr"/>
+      <c r="D19" s="17" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -860,7 +887,8 @@
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr"/>
-      <c r="D20" s="15" t="inlineStr"/>
+      <c r="D20" s="17" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -872,7 +900,8 @@
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr"/>
-      <c r="D21" s="15" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -884,7 +913,8 @@
         </is>
       </c>
       <c r="C22" s="11" t="inlineStr"/>
-      <c r="D22" s="15" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -896,7 +926,8 @@
         </is>
       </c>
       <c r="C23" s="11" t="inlineStr"/>
-      <c r="D23" s="15" t="inlineStr"/>
+      <c r="D23" s="17" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -908,7 +939,8 @@
         </is>
       </c>
       <c r="C24" s="11" t="inlineStr"/>
-      <c r="D24" s="15" t="inlineStr"/>
+      <c r="D24" s="17" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -919,16 +951,17 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -940,7 +973,8 @@
         </is>
       </c>
       <c r="C26" s="11" t="inlineStr"/>
-      <c r="D26" s="15" t="inlineStr"/>
+      <c r="D26" s="17" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -952,7 +986,8 @@
         </is>
       </c>
       <c r="C27" s="11" t="inlineStr"/>
-      <c r="D27" s="15" t="inlineStr"/>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -964,7 +999,8 @@
         </is>
       </c>
       <c r="C28" s="11" t="inlineStr"/>
-      <c r="D28" s="15" t="inlineStr"/>
+      <c r="D28" s="17" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -976,7 +1012,8 @@
         </is>
       </c>
       <c r="C29" s="11" t="inlineStr"/>
-      <c r="D29" s="15" t="inlineStr"/>
+      <c r="D29" s="17" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -988,7 +1025,8 @@
         </is>
       </c>
       <c r="C30" s="11" t="inlineStr"/>
-      <c r="D30" s="15" t="inlineStr"/>
+      <c r="D30" s="17" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -999,12 +1037,17 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="17" t="inlineStr">
+      <c r="C31" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1020,7 +1063,8 @@
         </is>
       </c>
       <c r="C32" s="11" t="inlineStr"/>
-      <c r="D32" s="15" t="inlineStr"/>
+      <c r="D32" s="17" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1032,7 +1076,8 @@
         </is>
       </c>
       <c r="C33" s="11" t="inlineStr"/>
-      <c r="D33" s="15" t="inlineStr"/>
+      <c r="D33" s="17" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1044,7 +1089,8 @@
         </is>
       </c>
       <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="15" t="inlineStr"/>
+      <c r="D34" s="17" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1055,16 +1101,17 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1076,7 +1123,8 @@
         </is>
       </c>
       <c r="C36" s="11" t="inlineStr"/>
-      <c r="D36" s="15" t="inlineStr"/>
+      <c r="D36" s="17" t="inlineStr"/>
+      <c r="E36" s="11" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1088,7 +1136,8 @@
         </is>
       </c>
       <c r="C37" s="11" t="inlineStr"/>
-      <c r="D37" s="15" t="inlineStr"/>
+      <c r="D37" s="17" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -627,7 +627,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr"/>
+      <c r="E3" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -669,7 +673,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr"/>
+      <c r="E5" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -729,7 +737,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr"/>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -763,7 +775,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr"/>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -802,7 +818,11 @@
       </c>
       <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="17" t="inlineStr"/>
-      <c r="E14" s="11" t="inlineStr"/>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -940,7 +960,11 @@
       </c>
       <c r="C24" s="11" t="inlineStr"/>
       <c r="D24" s="17" t="inlineStr"/>
-      <c r="E24" s="11" t="inlineStr"/>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -961,7 +985,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E25" s="11" t="inlineStr"/>
+      <c r="E25" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -1088,8 +1116,16 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr"/>
-      <c r="D34" s="17" t="inlineStr"/>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E34" s="11" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -1015,7 +1015,11 @@
       </c>
       <c r="C27" s="11" t="inlineStr"/>
       <c r="D27" s="17" t="inlineStr"/>
-      <c r="E27" s="11" t="inlineStr"/>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -701,9 +701,21 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr"/>
-      <c r="D7" s="17" t="inlineStr"/>
-      <c r="E7" s="11" t="inlineStr"/>
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -1000,9 +1012,21 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr"/>
-      <c r="D26" s="17" t="inlineStr"/>
-      <c r="E26" s="11" t="inlineStr"/>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -905,8 +905,16 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr"/>
-      <c r="D19" s="17" t="inlineStr"/>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
@@ -1175,7 +1183,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E35" s="11" t="inlineStr"/>
+      <c r="E35" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -1139,9 +1139,21 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr"/>
-      <c r="D33" s="17" t="inlineStr"/>
-      <c r="E33" s="11" t="inlineStr"/>
+      <c r="C33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D33" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-17 (15 November 2021 - 21 November 2021).xlsx
@@ -873,7 +873,11 @@
       </c>
       <c r="C17" s="11" t="inlineStr"/>
       <c r="D17" s="17" t="inlineStr"/>
-      <c r="E17" s="11" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
